--- a/lab 8/Packet/Packet_Format.xlsx
+++ b/lab 8/Packet/Packet_Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StepF\Documents\GitHub\ee533\lab 8\Packet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clint/Documents/ee533/lab 8/Packet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28BFAE-C107-4B30-B12D-F07E129547CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D39301-6AF7-1444-8020-036FB48018CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
   <si>
     <t>VER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,9 @@
   <si>
     <t>0010 1010 0110 1101</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0000 0000 0000 0000 0000 0000 0000 0000 0000 0011</t>
   </si>
 </sst>
 </file>
@@ -243,13 +246,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -258,7 +261,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -460,13 +463,28 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -487,30 +505,15 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,49 +793,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -862,36 +865,36 @@
         <v>17</v>
       </c>
       <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="11"/>
@@ -914,32 +917,32 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="10" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="11"/>
@@ -958,114 +961,114 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="19" t="s">
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="13" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-    </row>
-    <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="12" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="P14" s="15"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1095,9 +1098,9 @@
         <v>0</v>
       </c>
       <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1127,62 +1130,62 @@
         <v>32</v>
       </c>
       <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B17" s="16" t="s">
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="18"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="19" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="10" t="s">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="11"/>
@@ -1205,10 +1208,10 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="10" t="s">
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="11"/>
@@ -1231,54 +1234,54 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="16" t="s">
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="18"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="19" t="s">
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="10" t="s">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="11"/>
@@ -1297,10 +1300,10 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B24" s="10" t="s">
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="11"/>
@@ -1319,50 +1322,50 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B25" s="16" t="s">
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="18"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B26" s="19" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="23"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B27" s="10" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="11"/>
@@ -1379,11 +1382,11 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B28" s="10" t="s">
-        <v>46</v>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1399,10 +1402,10 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="10" t="s">
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="11"/>
@@ -1419,10 +1422,10 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="10" t="s">
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="11"/>
@@ -1439,10 +1442,10 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="12"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="10" t="s">
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="11"/>
@@ -1459,10 +1462,10 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="10" t="s">
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="11"/>
@@ -1479,10 +1482,10 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B33" s="10" t="s">
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="11"/>
@@ -1499,10 +1502,10 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B34" s="10" t="s">
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="11"/>
@@ -1519,10 +1522,10 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B35" s="10" t="s">
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="11"/>
@@ -1539,94 +1542,94 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="13" t="s">
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="15"/>
-    </row>
-    <row r="37" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="20"/>
+    </row>
+    <row r="37" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22" t="s">
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
       <c r="N38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="23"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="P38" s="24"/>
+      <c r="Q38" s="25"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20" t="s">
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
       <c r="N39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="20" t="s">
+      <c r="O39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="P39" s="15"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,9 +1659,9 @@
         <v>0</v>
       </c>
       <c r="P40" s="11"/>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>26</v>
       </c>
@@ -1688,62 +1691,62 @@
         <v>32</v>
       </c>
       <c r="P41" s="11"/>
-      <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B42" s="16" t="s">
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17" t="s">
+      <c r="E42" s="22"/>
+      <c r="F42" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="18"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B43" s="19" t="s">
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="23"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20" t="s">
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="21"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B44" s="10" t="s">
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11"/>
@@ -1766,10 +1769,10 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="12"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B45" s="10" t="s">
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="11"/>
@@ -1792,54 +1795,54 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="12"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B46" s="16" t="s">
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17" t="s">
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="18"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B47" s="19" t="s">
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="23"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="21"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B48" s="10" t="s">
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="17"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="11"/>
@@ -1858,10 +1861,10 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="12"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B49" s="10" t="s">
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="11"/>
@@ -1880,50 +1883,50 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="12"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B50" s="16" t="s">
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="18"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B51" s="19" t="s">
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="23"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="21"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B52" s="10" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="17"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="11"/>
@@ -1940,11 +1943,11 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="12"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B53" s="10" t="s">
-        <v>46</v>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -1960,10 +1963,10 @@
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="12"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B54" s="10" t="s">
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="11"/>
@@ -1980,10 +1983,10 @@
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="12"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B55" s="10" t="s">
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="11"/>
@@ -2000,10 +2003,10 @@
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="12"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B56" s="10" t="s">
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="11"/>
@@ -2020,10 +2023,10 @@
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="12"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B57" s="10" t="s">
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="11"/>
@@ -2040,10 +2043,10 @@
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="12"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B58" s="10" t="s">
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C58" s="11"/>
@@ -2060,10 +2063,10 @@
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="12"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B59" s="10" t="s">
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B59" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="11"/>
@@ -2080,10 +2083,10 @@
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="12"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B60" s="10" t="s">
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C60" s="11"/>
@@ -2100,50 +2103,112 @@
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="12"/>
-    </row>
-    <row r="61" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="13" t="s">
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="15"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B55:Q55"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B61:Q61"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="B57:Q57"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B51:Q51"/>
+    <mergeCell ref="B52:Q52"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
     <mergeCell ref="B9:Q9"/>
     <mergeCell ref="B10:Q10"/>
     <mergeCell ref="J20:Q20"/>
@@ -2168,88 +2233,26 @@
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B61:Q61"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B59:Q59"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="B57:Q57"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B51:Q51"/>
-    <mergeCell ref="B52:Q52"/>
-    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
